--- a/Results/SXXXXXXXX/SXXXXXXXX_CAL.xlsx
+++ b/Results/SXXXXXXXX/SXXXXXXXX_CAL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{949EA87D-68EB-43E4-A974-D828F2D84B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D38470AC-A834-4C3A-AB67-463BFE56F1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8145" yWindow="0" windowWidth="17910" windowHeight="12315" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="8145" yWindow="0" windowWidth="17910" windowHeight="12315" tabRatio="763" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP" sheetId="1" r:id="rId1"/>
@@ -1669,8 +1669,8 @@
   </sheetPr>
   <dimension ref="B1:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="H7" s="68">
         <f>UniformityWhite!B15</f>
-        <v>70</v>
+        <v>99.933137726944182</v>
       </c>
       <c r="I7" s="61" t="str">
         <f>IF(H7&gt;F7,"FAIL","PASS")</f>
@@ -1773,11 +1773,11 @@
       </c>
       <c r="H8" s="68">
         <f>UniformityBlack!B15</f>
-        <v>7.6603135662882876E-2</v>
+        <v>99.935559478532426</v>
       </c>
       <c r="I8" s="61" t="str">
         <f>IF(H8&gt;F8,"FAIL","PASS")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="9" spans="2:14" s="56" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="H11" s="68">
         <f>UniformityWhite!I15</f>
-        <v>7.8166732090319685E-2</v>
+        <v>9.5467695274831197</v>
       </c>
       <c r="I11" s="61" t="str">
         <f>IF(H11&gt;F11,"FAIL","PASS")</f>
@@ -1830,11 +1830,11 @@
       </c>
       <c r="H12" s="68">
         <f>UniformityBlack!I15</f>
-        <v>7.8166732090319685E-2</v>
+        <v>99.867494769959819</v>
       </c>
       <c r="I12" s="61" t="str">
         <f>IF(H12&gt;F12,"FAIL","PASS")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="56" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1866,12 +1866,10 @@
       <c r="F15" s="60">
         <v>761.25178448047041</v>
       </c>
-      <c r="H15" s="70">
-        <v>0.42949999999999999</v>
-      </c>
+      <c r="H15" s="70"/>
       <c r="I15" s="61" t="str">
         <f>IF(H15="","N/A",IF(OR(H15&lt;D15,H15&gt;F15),"FAIL","PASS"))</f>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="16" spans="2:14" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1885,12 +1883,10 @@
       <c r="F16" s="60">
         <v>1.8688455445479828</v>
       </c>
-      <c r="H16" s="70">
-        <v>0.42920000000000003</v>
-      </c>
+      <c r="H16" s="70"/>
       <c r="I16" s="61" t="str">
         <f t="shared" ref="I16:I29" si="0">IF(H16="","N/A",IF(OR(H16&lt;D16,H16&gt;F16),"FAIL","PASS"))</f>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1904,12 +1900,10 @@
       <c r="F17" s="60">
         <v>3.0451316372185158</v>
       </c>
-      <c r="H17" s="70">
-        <v>0.4289</v>
-      </c>
+      <c r="H17" s="70"/>
       <c r="I17" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="18" spans="2:9" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1923,12 +1917,10 @@
       <c r="F18" s="60">
         <v>3.4542035492000878</v>
       </c>
-      <c r="H18" s="70">
-        <v>0.4294</v>
-      </c>
+      <c r="H18" s="70"/>
       <c r="I18" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="19" spans="2:9" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1942,12 +1934,10 @@
       <c r="F19" s="60">
         <v>4.8977146907629763</v>
       </c>
-      <c r="H19" s="70">
-        <v>0.42920000000000003</v>
-      </c>
+      <c r="H19" s="70"/>
       <c r="I19" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1961,12 +1951,10 @@
       <c r="F20" s="60">
         <v>10.587328778145489</v>
       </c>
-      <c r="H20" s="70">
-        <v>0.42899999999999999</v>
-      </c>
+      <c r="H20" s="70"/>
       <c r="I20" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1980,12 +1968,10 @@
       <c r="F21" s="60">
         <v>19.538836500702821</v>
       </c>
-      <c r="H21" s="70">
-        <v>0.4299</v>
-      </c>
+      <c r="H21" s="70"/>
       <c r="I21" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="22" spans="2:9" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1999,12 +1985,10 @@
       <c r="F22" s="60">
         <v>20.923940275605819</v>
       </c>
-      <c r="H22" s="70">
-        <v>0.42970000000000003</v>
-      </c>
+      <c r="H22" s="70"/>
       <c r="I22" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="23" spans="2:9" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2018,12 +2002,10 @@
       <c r="F23" s="60">
         <v>32.491393452175025</v>
       </c>
-      <c r="H23" s="70">
-        <v>0.42909999999999998</v>
-      </c>
+      <c r="H23" s="70"/>
       <c r="I23" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2037,12 +2019,10 @@
       <c r="F24" s="60">
         <v>55.434622469515162</v>
       </c>
-      <c r="H24" s="70">
-        <v>0.42930000000000001</v>
-      </c>
+      <c r="H24" s="70"/>
       <c r="I24" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="25" spans="2:9" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2056,12 +2036,10 @@
       <c r="F25" s="60">
         <v>80.092077825657881</v>
       </c>
-      <c r="H25" s="70">
-        <v>2.1420000000000002E-2</v>
-      </c>
+      <c r="H25" s="70"/>
       <c r="I25" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="26" spans="2:9" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2075,12 +2053,10 @@
       <c r="F26" s="60">
         <v>87.228084791277126</v>
       </c>
-      <c r="H26" s="70">
-        <v>2.253E-4</v>
-      </c>
+      <c r="H26" s="70"/>
       <c r="I26" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="27" spans="2:9" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2094,12 +2070,10 @@
       <c r="F27" s="60">
         <v>139.0952254220135</v>
       </c>
-      <c r="H27" s="70">
-        <v>2.1680000000000001E-4</v>
-      </c>
+      <c r="H27" s="70"/>
       <c r="I27" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="28" spans="2:9" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2113,12 +2087,10 @@
       <c r="F28" s="60">
         <v>314.21204010972247</v>
       </c>
-      <c r="H28" s="70">
-        <v>1.996E-4</v>
-      </c>
+      <c r="H28" s="70"/>
       <c r="I28" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="29" spans="2:9" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2132,12 +2104,10 @@
       <c r="F29" s="60">
         <v>451.07229428370164</v>
       </c>
-      <c r="H29" s="70">
-        <v>2.039E-4</v>
-      </c>
+      <c r="H29" s="70"/>
       <c r="I29" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="30" spans="2:9" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2151,12 +2121,10 @@
       <c r="F30" s="60">
         <v>13.552000822459965</v>
       </c>
-      <c r="H30" s="70">
-        <v>1.9599999999999999E-4</v>
-      </c>
+      <c r="H30" s="70"/>
       <c r="I30" s="61" t="str">
         <f>IF(H30="","N/A",IF(OR(H30&lt;D30,H30&gt;F30),"FAIL","PASS"))</f>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="31" spans="2:9" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2170,12 +2138,10 @@
       <c r="F31" s="60">
         <v>1.6940001028074966E-2</v>
       </c>
-      <c r="H31" s="70">
-        <v>2.0719999999999999E-4</v>
-      </c>
+      <c r="H31" s="70"/>
       <c r="I31" s="61" t="str">
         <f>IF(H31="","N/A",IF(OR(H31&lt;D31,H31&gt;F31),"FAIL","PASS"))</f>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="32" spans="2:9" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2189,12 +2155,10 @@
       <c r="F32" s="60">
         <v>2.0366661685991366E-2</v>
       </c>
-      <c r="H32" s="70">
-        <v>2.063E-4</v>
-      </c>
+      <c r="H32" s="70"/>
       <c r="I32" s="61" t="str">
         <f t="shared" ref="I32:I44" si="1">IF(H32="","N/A",IF(OR(H32&lt;D32,H32&gt;F32),"FAIL","PASS"))</f>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="33" spans="2:12" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2208,12 +2172,10 @@
       <c r="F33" s="60">
         <v>2.1467369207673202E-2</v>
       </c>
-      <c r="H33" s="70">
-        <v>1.7699999999999999E-4</v>
-      </c>
+      <c r="H33" s="70"/>
       <c r="I33" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="34" spans="2:12" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2227,12 +2189,10 @@
       <c r="F34" s="60">
         <v>2.5139448983735074E-2</v>
       </c>
-      <c r="H34" s="70">
-        <v>1.9799999999999999E-4</v>
-      </c>
+      <c r="H34" s="70"/>
       <c r="I34" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="35" spans="2:12" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2246,12 +2206,10 @@
       <c r="F35" s="60">
         <v>3.8302539103382945E-2</v>
       </c>
-      <c r="H35" s="70">
-        <v>2.1159999999999999E-4</v>
-      </c>
+      <c r="H35" s="70"/>
       <c r="I35" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="36" spans="2:12" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2265,12 +2223,10 @@
       <c r="F36" s="60">
         <v>5.8357862287091729E-2</v>
       </c>
-      <c r="H36" s="70">
-        <v>1.9000000000000001E-4</v>
-      </c>
+      <c r="H36" s="70"/>
       <c r="I36" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="37" spans="2:12" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2284,12 +2240,10 @@
       <c r="F37" s="60">
         <v>6.1511787999564117E-2</v>
       </c>
-      <c r="H37" s="70">
-        <v>1.9320000000000001E-4</v>
-      </c>
+      <c r="H37" s="70"/>
       <c r="I37" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="38" spans="2:12" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2303,12 +2257,10 @@
       <c r="F38" s="60">
         <v>8.8914212228253298E-2</v>
       </c>
-      <c r="H38" s="70">
-        <v>2.007E-4</v>
-      </c>
+      <c r="H38" s="70"/>
       <c r="I38" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="39" spans="2:12" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2322,12 +2274,10 @@
       <c r="F39" s="60">
         <v>0.15050847237548162</v>
       </c>
-      <c r="H39" s="70">
-        <v>2.0239999999999999E-4</v>
-      </c>
+      <c r="H39" s="70"/>
       <c r="I39" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="40" spans="2:12" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2341,12 +2291,10 @@
       <c r="F40" s="60">
         <v>0.22931515532747393</v>
       </c>
-      <c r="H40" s="70">
-        <v>1.897E-4</v>
-      </c>
+      <c r="H40" s="70"/>
       <c r="I40" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="41" spans="2:12" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2360,12 +2308,10 @@
       <c r="F41" s="60">
         <v>0.25477142167833289</v>
       </c>
-      <c r="H41" s="70">
-        <v>1.9239999999999999E-4</v>
-      </c>
+      <c r="H41" s="70"/>
       <c r="I41" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="42" spans="2:12" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2379,12 +2325,10 @@
       <c r="F42" s="60">
         <v>0.47913558401035578</v>
       </c>
-      <c r="H42" s="70">
-        <v>2.9300000000000002E-4</v>
-      </c>
+      <c r="H42" s="70"/>
       <c r="I42" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="43" spans="2:12" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2398,12 +2342,10 @@
       <c r="F43" s="60">
         <v>1.8827463269599165</v>
       </c>
-      <c r="H43" s="70">
-        <v>0.43459999999999999</v>
-      </c>
+      <c r="H43" s="70"/>
       <c r="I43" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="44" spans="2:12" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2417,12 +2359,10 @@
       <c r="F44" s="60">
         <v>3.9338471093332656</v>
       </c>
-      <c r="H44" s="70">
-        <v>0.433</v>
-      </c>
+      <c r="H44" s="70"/>
       <c r="I44" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="45" spans="2:12" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2466,11 +2406,11 @@
       </c>
       <c r="H47" s="75">
         <f>ChromaticityCoordinates!H4</f>
-        <v>0</v>
+        <v>0.11688648339307675</v>
       </c>
       <c r="I47" s="73" t="str">
         <f>ChromaticityCoordinates!Q4</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="L47" s="74"/>
     </row>
@@ -2491,7 +2431,7 @@
       </c>
       <c r="H48" s="75">
         <f>ChromaticityCoordinates!H5</f>
-        <v>1.6360663189492046</v>
+        <v>0.1374386408547465</v>
       </c>
       <c r="I48" s="73" t="str">
         <f>ChromaticityCoordinates!Q5</f>
@@ -2516,7 +2456,7 @@
       </c>
       <c r="H49" s="75">
         <f>ChromaticityCoordinates!H6</f>
-        <v>3.2199448753045448</v>
+        <v>0.21975277017594108</v>
       </c>
       <c r="I49" s="73" t="str">
         <f>ChromaticityCoordinates!Q6</f>
@@ -2541,7 +2481,7 @@
       </c>
       <c r="H50" s="75">
         <f>ChromaticityCoordinates!H7</f>
-        <v>4.7337063702768889</v>
+        <v>0.26868915125103204</v>
       </c>
       <c r="I50" s="73" t="str">
         <f>ChromaticityCoordinates!Q7</f>
@@ -2591,7 +2531,7 @@
       </c>
       <c r="H53" s="75">
         <f>ChromaticityCoordinates!H20</f>
-        <v>0.9662235766115419</v>
+        <v>0.11880812261794228</v>
       </c>
       <c r="I53" s="73" t="str">
         <f>ChromaticityCoordinates!Q20</f>
@@ -2616,7 +2556,7 @@
       </c>
       <c r="H54" s="75">
         <f>ChromaticityCoordinates!H21</f>
-        <v>1.6833543893072545</v>
+        <v>9.9727278113864115E-2</v>
       </c>
       <c r="I54" s="73" t="str">
         <f>ChromaticityCoordinates!Q21</f>
@@ -2641,7 +2581,7 @@
       </c>
       <c r="H55" s="75">
         <f>ChromaticityCoordinates!H22</f>
-        <v>3.2065245983775021</v>
+        <v>0.19403092537015842</v>
       </c>
       <c r="I55" s="73" t="str">
         <f>ChromaticityCoordinates!Q22</f>
@@ -2666,7 +2606,7 @@
       </c>
       <c r="H56" s="75">
         <f>ChromaticityCoordinates!H23</f>
-        <v>4.7406280174677287</v>
+        <v>0.28995422052455105</v>
       </c>
       <c r="I56" s="73" t="str">
         <f>ChromaticityCoordinates!Q23</f>
@@ -2702,7 +2642,7 @@
       </c>
       <c r="H59" s="75">
         <f>ContrastOnAxis!D3</f>
-        <v>182.79411506039997</v>
+        <v>0.80609418282548473</v>
       </c>
       <c r="I59" s="61" t="str">
         <f>IF(H59&lt;=F59,"FAIL","PASS")</f>
@@ -2736,7 +2676,7 @@
       <c r="F62" s="60"/>
       <c r="H62" s="75">
         <f>AnglesLuminance!C5</f>
-        <v>1</v>
+        <v>0.43490000000000001</v>
       </c>
       <c r="I62" s="61" t="str">
         <f>IF(H62&lt;=D62,"FAIL","PASS")</f>
@@ -2754,7 +2694,7 @@
       </c>
       <c r="H63" s="75">
         <f>AnglesLuminance!C6</f>
-        <v>2</v>
+        <v>0.4299</v>
       </c>
       <c r="I63" s="61" t="str">
         <f>IF(H63&gt;=F63,"FAIL","PASS")</f>
@@ -2772,7 +2712,7 @@
       <c r="F64" s="60"/>
       <c r="H64" s="75">
         <f>AnglesLuminance!C7</f>
-        <v>3</v>
+        <v>0.43180000000000002</v>
       </c>
       <c r="I64" s="61" t="str">
         <f>IF(H64&lt;=D64,"FAIL","PASS")</f>
@@ -2790,7 +2730,7 @@
       </c>
       <c r="H65" s="75">
         <f>AnglesLuminance!C8</f>
-        <v>4</v>
+        <v>0.43120000000000003</v>
       </c>
       <c r="I65" s="61" t="str">
         <f>IF(H65&gt;=F65,"FAIL","PASS")</f>
@@ -2808,7 +2748,7 @@
       </c>
       <c r="H66" s="75">
         <f>AnglesLuminance!C9</f>
-        <v>5</v>
+        <v>0.43049999999999999</v>
       </c>
       <c r="I66" s="61" t="str">
         <f>IF(H66&gt;=F66,"FAIL","PASS")</f>
@@ -2826,7 +2766,7 @@
       <c r="F67" s="60"/>
       <c r="H67" s="75">
         <f>AnglesLuminance!C10</f>
-        <v>6</v>
+        <v>0.43009999999999998</v>
       </c>
       <c r="I67" s="61" t="str">
         <f>IF(H67&lt;=D67,"FAIL","PASS")</f>
@@ -2844,7 +2784,7 @@
       <c r="F68" s="60"/>
       <c r="H68" s="75">
         <f>AnglesLuminance!C11</f>
-        <v>7</v>
+        <v>0.43</v>
       </c>
       <c r="I68" s="61" t="str">
         <f>IF(H68&lt;=D68,"FAIL","PASS")</f>
@@ -2862,7 +2802,7 @@
       <c r="F69" s="60"/>
       <c r="H69" s="75">
         <f>AnglesLuminance!C12</f>
-        <v>8</v>
+        <v>0.42970000000000003</v>
       </c>
       <c r="I69" s="61" t="str">
         <f>IF(H69&lt;=D69,"FAIL","PASS")</f>
@@ -2880,7 +2820,7 @@
       <c r="F70" s="60"/>
       <c r="H70" s="75">
         <f>AnglesLuminance!C13</f>
-        <v>9</v>
+        <v>0.4299</v>
       </c>
       <c r="I70" s="61" t="str">
         <f>IF(H70&lt;=D70,"FAIL","PASS")</f>
@@ -2898,7 +2838,7 @@
       </c>
       <c r="H71" s="75">
         <f>AnglesLuminance!C14</f>
-        <v>10</v>
+        <v>0.4289</v>
       </c>
       <c r="I71" s="61" t="str">
         <f>IF(H71&gt;=F71,"FAIL","PASS")</f>
@@ -2987,7 +2927,7 @@
       <c r="F80" s="20"/>
       <c r="H80" s="27">
         <f>ContrastOnAxis!D3</f>
-        <v>182.79411506039997</v>
+        <v>0.80609418282548473</v>
       </c>
       <c r="I80" s="29" t="e">
         <f>#REF!</f>
@@ -3632,8 +3572,8 @@
   </sheetPr>
   <dimension ref="B1:AA261"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3694,9 +3634,7 @@
       <c r="B2" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="35">
-        <v>15</v>
-      </c>
+      <c r="C2" s="35"/>
       <c r="D2" s="35" t="s">
         <v>83</v>
       </c>
@@ -3707,7 +3645,7 @@
         <v>84</v>
       </c>
       <c r="G2" s="38">
-        <v>-3.75</v>
+        <v>3.1749999999999998</v>
       </c>
       <c r="J2" s="35" t="s">
         <v>90</v>
@@ -3823,12 +3761,10 @@
         <f>C5+C5*$U$1</f>
         <v>1.6940001028074966E-2</v>
       </c>
-      <c r="F5" s="38">
-        <v>2.0719999999999999E-4</v>
-      </c>
+      <c r="F5" s="38"/>
       <c r="G5" s="35" t="str">
         <f>IF(F5="","N/A",IF(F5&gt;0.015,"FAIL","PASS"))</f>
-        <v>PASS</v>
+        <v>N/A</v>
       </c>
       <c r="J5" s="37">
         <v>1</v>
@@ -3844,12 +3780,10 @@
         <f>K5+K5*$U$1</f>
         <v>1.8688455445479828</v>
       </c>
-      <c r="N5" s="38">
-        <v>0.42920000000000003</v>
-      </c>
+      <c r="N5" s="38"/>
       <c r="O5" s="35" t="str">
         <f>IF(N5="","N/A",IF(OR(N5&gt;M5,N5&lt;L5),"FAIL","PASS"))</f>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
       <c r="Z5" s="33"/>
       <c r="AA5" s="33"/>
@@ -4111,12 +4045,10 @@
         <f t="shared" si="4"/>
         <v>2.0366661685991366E-2</v>
       </c>
-      <c r="F12" s="38">
-        <v>0.433</v>
-      </c>
+      <c r="F12" s="38"/>
       <c r="G12" s="35" t="str">
         <f>IF(F12="","N/A",IF(OR(F12&gt;E12,F12&lt;D12),"FAIL","PASS"))</f>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
       <c r="J12" s="37">
         <v>8</v>
@@ -4132,12 +4064,10 @@
         <f t="shared" si="1"/>
         <v>3.0451316372185158</v>
       </c>
-      <c r="N12" s="38">
-        <v>2.039E-4</v>
-      </c>
+      <c r="N12" s="38"/>
       <c r="O12" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="13" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4195,12 +4125,10 @@
         <f t="shared" si="4"/>
         <v>2.1467369207673202E-2</v>
       </c>
-      <c r="F14" s="38">
-        <v>2.063E-4</v>
-      </c>
+      <c r="F14" s="38"/>
       <c r="G14" s="35" t="str">
         <f t="shared" si="5"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
       <c r="J14" s="37">
         <v>10</v>
@@ -4216,12 +4144,10 @@
         <f t="shared" si="1"/>
         <v>3.4542035492000878</v>
       </c>
-      <c r="N14" s="38">
-        <v>0.4289</v>
-      </c>
+      <c r="N14" s="38"/>
       <c r="O14" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="15" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4439,12 +4365,10 @@
         <f t="shared" si="4"/>
         <v>2.5139448983735074E-2</v>
       </c>
-      <c r="F20" s="38">
-        <v>1.7699999999999999E-4</v>
-      </c>
+      <c r="F20" s="38"/>
       <c r="G20" s="35" t="str">
         <f t="shared" si="5"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
       <c r="J20" s="37">
         <v>16</v>
@@ -4460,12 +4384,10 @@
         <f t="shared" si="1"/>
         <v>4.8977146907629763</v>
       </c>
-      <c r="N20" s="38">
-        <v>0.4294</v>
-      </c>
+      <c r="N20" s="38"/>
       <c r="O20" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="21" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5085,12 +5007,10 @@
         <f t="shared" si="4"/>
         <v>3.8302539103382945E-2</v>
       </c>
-      <c r="F36" s="38">
-        <v>1.9799999999999999E-4</v>
-      </c>
+      <c r="F36" s="38"/>
       <c r="G36" s="35" t="str">
         <f t="shared" si="5"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
       <c r="J36" s="37">
         <v>32</v>
@@ -5106,12 +5026,10 @@
         <f t="shared" si="1"/>
         <v>10.587328778145489</v>
       </c>
-      <c r="N36" s="38">
-        <v>0.42920000000000003</v>
-      </c>
+      <c r="N36" s="38"/>
       <c r="O36" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5730,12 +5648,10 @@
         <f t="shared" si="4"/>
         <v>5.8357862287091729E-2</v>
       </c>
-      <c r="F52" s="38">
-        <v>2.1159999999999999E-4</v>
-      </c>
+      <c r="F52" s="38"/>
       <c r="G52" s="35" t="str">
         <f t="shared" si="5"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
       <c r="J52" s="37">
         <v>48</v>
@@ -5751,12 +5667,10 @@
         <f t="shared" si="1"/>
         <v>19.538836500702821</v>
       </c>
-      <c r="N52" s="38">
-        <v>0.42899999999999999</v>
-      </c>
+      <c r="N52" s="38"/>
       <c r="O52" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="53" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5814,12 +5728,10 @@
         <f t="shared" si="4"/>
         <v>6.1511787999564117E-2</v>
       </c>
-      <c r="F54" s="38">
-        <v>1.9000000000000001E-4</v>
-      </c>
+      <c r="F54" s="38"/>
       <c r="G54" s="35" t="str">
         <f t="shared" si="5"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
       <c r="J54" s="37">
         <v>50</v>
@@ -5835,12 +5747,10 @@
         <f t="shared" si="1"/>
         <v>20.923940275605819</v>
       </c>
-      <c r="N54" s="38">
-        <v>0.4299</v>
-      </c>
+      <c r="N54" s="38"/>
       <c r="O54" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="55" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -6380,12 +6290,10 @@
         <f t="shared" si="4"/>
         <v>8.8914212228253298E-2</v>
       </c>
-      <c r="F68" s="38">
-        <v>1.9320000000000001E-4</v>
-      </c>
+      <c r="F68" s="38"/>
       <c r="G68" s="35" t="str">
         <f>IF(F68="","N/A",IF(OR(F68&gt;E68,F68&lt;D68),"FAIL","PASS"))</f>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
       <c r="J68" s="37">
         <v>64</v>
@@ -6401,12 +6309,10 @@
         <f t="shared" si="1"/>
         <v>32.491393452175025</v>
       </c>
-      <c r="N68" s="38">
-        <v>0.42970000000000003</v>
-      </c>
+      <c r="N68" s="38"/>
       <c r="O68" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="69" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -7184,12 +7090,10 @@
         <f t="shared" si="10"/>
         <v>0.15050847237548162</v>
       </c>
-      <c r="F88" s="38">
-        <v>2.007E-4</v>
-      </c>
+      <c r="F88" s="38"/>
       <c r="G88" s="35" t="str">
         <f t="shared" si="11"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
       <c r="J88" s="37">
         <v>84</v>
@@ -7205,12 +7109,10 @@
         <f t="shared" si="8"/>
         <v>55.434622469515162</v>
       </c>
-      <c r="N88" s="38">
-        <v>0.42909999999999998</v>
-      </c>
+      <c r="N88" s="38"/>
       <c r="O88" s="35" t="str">
         <f t="shared" si="6"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="89" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -7830,12 +7732,10 @@
         <f t="shared" si="10"/>
         <v>0.22931515532747393</v>
       </c>
-      <c r="F104" s="38">
-        <v>2.0239999999999999E-4</v>
-      </c>
+      <c r="F104" s="38"/>
       <c r="G104" s="35" t="str">
         <f t="shared" si="11"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
       <c r="J104" s="37">
         <v>100</v>
@@ -7851,12 +7751,10 @@
         <f t="shared" si="8"/>
         <v>80.092077825657881</v>
       </c>
-      <c r="N104" s="38">
-        <v>0.42930000000000001</v>
-      </c>
+      <c r="N104" s="38"/>
       <c r="O104" s="35" t="str">
         <f t="shared" si="6"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="105" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -7994,12 +7892,10 @@
         <f t="shared" si="10"/>
         <v>0.25477142167833289</v>
       </c>
-      <c r="F108" s="38">
-        <v>1.897E-4</v>
-      </c>
+      <c r="F108" s="38"/>
       <c r="G108" s="35" t="str">
         <f t="shared" si="11"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
       <c r="J108" s="37">
         <v>104</v>
@@ -8015,12 +7911,10 @@
         <f t="shared" si="8"/>
         <v>87.228084791277126</v>
       </c>
-      <c r="N108" s="38">
-        <v>2.1420000000000002E-2</v>
-      </c>
+      <c r="N108" s="38"/>
       <c r="O108" s="35" t="str">
         <f t="shared" si="6"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="109" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8960,12 +8854,10 @@
         <f t="shared" si="10"/>
         <v>0.47913558401035578</v>
       </c>
-      <c r="F132" s="38">
-        <v>1.9239999999999999E-4</v>
-      </c>
+      <c r="F132" s="38"/>
       <c r="G132" s="35" t="str">
         <f t="shared" si="11"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
       <c r="J132" s="37">
         <v>128</v>
@@ -8981,12 +8873,10 @@
         <f t="shared" si="8"/>
         <v>139.0952254220135</v>
       </c>
-      <c r="N132" s="38">
-        <v>2.253E-4</v>
-      </c>
+      <c r="N132" s="38"/>
       <c r="O132" s="35" t="str">
         <f t="shared" si="6"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="133" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -11048,12 +10938,10 @@
         <f t="shared" si="16"/>
         <v>1.8827463269599165</v>
       </c>
-      <c r="F184" s="38">
-        <v>2.9300000000000002E-4</v>
-      </c>
+      <c r="F184" s="38"/>
       <c r="G184" s="35" t="str">
         <f t="shared" si="17"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
       <c r="J184" s="37">
         <v>180</v>
@@ -11069,12 +10957,10 @@
         <f t="shared" si="14"/>
         <v>314.21204010972247</v>
       </c>
-      <c r="N184" s="38">
-        <v>2.1680000000000001E-4</v>
-      </c>
+      <c r="N184" s="38"/>
       <c r="O184" s="35" t="str">
         <f t="shared" si="12"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
       <c r="Z184" s="33"/>
       <c r="AA184" s="33"/>
@@ -12176,12 +12062,10 @@
         <f t="shared" si="22"/>
         <v>3.9338471093332656</v>
       </c>
-      <c r="F212" s="38">
-        <v>0.43459999999999999</v>
-      </c>
+      <c r="F212" s="38"/>
       <c r="G212" s="35" t="str">
         <f t="shared" si="23"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
       <c r="J212" s="37">
         <v>208</v>
@@ -12197,12 +12081,10 @@
         <f t="shared" si="20"/>
         <v>451.07229428370164</v>
       </c>
-      <c r="N212" s="38">
-        <v>1.996E-4</v>
-      </c>
+      <c r="N212" s="38"/>
       <c r="O212" s="35" t="str">
         <f>IF(N212="","N/A",IF(OR(N212&gt;M212,N212&lt;L212),"FAIL","PASS"))</f>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="213" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -14063,12 +13945,10 @@
         <f>C259+C259*$U$1</f>
         <v>13.552000822459965</v>
       </c>
-      <c r="F259" s="38">
-        <v>1.9599999999999999E-4</v>
-      </c>
+      <c r="F259" s="38"/>
       <c r="G259" s="35" t="str">
         <f t="shared" si="23"/>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
       <c r="J259" s="37">
         <v>255</v>
@@ -14084,12 +13964,10 @@
         <f>K259+K259*$U$1</f>
         <v>761.25178448047041</v>
       </c>
-      <c r="N259" s="38">
-        <v>0.42949999999999999</v>
-      </c>
+      <c r="N259" s="38"/>
       <c r="O259" s="35" t="str">
         <f>IF(N259="","N/A",IF(OR(N259&gt;M259,N259&lt;L259),"FAIL","PASS"))</f>
-        <v>FAIL</v>
+        <v>N/A</v>
       </c>
       <c r="Z259" s="33"/>
     </row>
@@ -14144,7 +14022,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14199,7 +14077,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="66">
-        <v>753.46255609725245</v>
+        <v>0.42820000000000003</v>
       </c>
       <c r="C3" s="63"/>
       <c r="D3" s="45"/>
@@ -14210,7 +14088,7 @@
         <v>95</v>
       </c>
       <c r="I3" s="66">
-        <v>11.837567110418563</v>
+        <v>1.449E-4</v>
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="45"/>
@@ -14222,7 +14100,7 @@
         <v>96</v>
       </c>
       <c r="B4" s="66">
-        <v>681.68209612318049</v>
+        <v>1.7589999999999999E-4</v>
       </c>
       <c r="C4" s="63"/>
       <c r="D4" s="45"/>
@@ -14233,7 +14111,7 @@
         <v>96</v>
       </c>
       <c r="I4" s="66">
-        <v>12.160083613581635</v>
+        <v>1.7039999999999999E-4</v>
       </c>
       <c r="J4" s="63"/>
       <c r="K4" s="45"/>
@@ -14245,7 +14123,7 @@
         <v>97</v>
       </c>
       <c r="B5" s="66">
-        <v>729.08295334949548</v>
+        <v>1.763E-4</v>
       </c>
       <c r="C5" s="63"/>
       <c r="D5" s="45"/>
@@ -14256,7 +14134,7 @@
         <v>97</v>
       </c>
       <c r="I5" s="66">
-        <v>11.740887616576051</v>
+        <v>1.639E-4</v>
       </c>
       <c r="J5" s="63"/>
       <c r="K5" s="45"/>
@@ -14268,7 +14146,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="66">
-        <v>755.23012431794643</v>
+        <v>1.5430000000000001E-4</v>
       </c>
       <c r="C6" s="63"/>
       <c r="D6" s="45"/>
@@ -14279,7 +14157,7 @@
         <v>98</v>
       </c>
       <c r="I6" s="66">
-        <v>11.340857053719464</v>
+        <v>1.407E-4</v>
       </c>
       <c r="J6" s="63"/>
       <c r="K6" s="45"/>
@@ -14291,7 +14169,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="66">
-        <v>683.49101731876783</v>
+        <v>1.6110000000000001E-4</v>
       </c>
       <c r="C7" s="63"/>
       <c r="D7" s="45"/>
@@ -14302,7 +14180,7 @@
         <v>99</v>
       </c>
       <c r="I7" s="66">
-        <v>11.706063545867458</v>
+        <v>1.504E-4</v>
       </c>
       <c r="J7" s="63"/>
       <c r="K7" s="45"/>
@@ -14314,7 +14192,7 @@
         <v>100</v>
       </c>
       <c r="B8" s="66">
-        <v>733.02894352600754</v>
+        <v>1.5339999999999999E-4</v>
       </c>
       <c r="C8" s="63"/>
       <c r="D8" s="45"/>
@@ -14325,7 +14203,7 @@
         <v>100</v>
       </c>
       <c r="I8" s="66">
-        <v>11.19489572124473</v>
+        <v>1.6679999999999999E-4</v>
       </c>
       <c r="J8" s="63"/>
       <c r="K8" s="45"/>
@@ -14337,7 +14215,7 @@
         <v>101</v>
       </c>
       <c r="B9" s="66">
-        <v>717.61060874376653</v>
+        <v>1.7200000000000001E-4</v>
       </c>
       <c r="C9" s="63"/>
       <c r="D9" s="45"/>
@@ -14348,7 +14226,7 @@
         <v>101</v>
       </c>
       <c r="I9" s="66">
-        <v>12.606553252726011</v>
+        <v>1.6229999999999999E-4</v>
       </c>
       <c r="J9" s="63"/>
       <c r="K9" s="45"/>
@@ -14360,7 +14238,7 @@
         <v>102</v>
       </c>
       <c r="B10" s="66">
-        <v>647.75691761173994</v>
+        <v>1.4320000000000001E-4</v>
       </c>
       <c r="C10" s="63"/>
       <c r="D10" s="45"/>
@@ -14371,7 +14249,7 @@
         <v>102</v>
       </c>
       <c r="I10" s="66">
-        <v>13.093435175360723</v>
+        <v>1.5970000000000001E-4</v>
       </c>
       <c r="J10" s="63"/>
       <c r="K10" s="45"/>
@@ -14383,7 +14261,7 @@
         <v>103</v>
       </c>
       <c r="B11" s="66">
-        <v>699.24486574952971</v>
+        <v>1.7239999999999999E-4</v>
       </c>
       <c r="C11" s="63"/>
       <c r="D11" s="45"/>
@@ -14394,7 +14272,7 @@
         <v>103</v>
       </c>
       <c r="I11" s="66">
-        <v>12.556684842364687</v>
+        <v>1.4650000000000001E-4</v>
       </c>
       <c r="J11" s="63"/>
       <c r="K11" s="45"/>
@@ -14445,7 +14323,7 @@
         <v>104</v>
       </c>
       <c r="B15" s="67">
-        <v>70</v>
+        <v>99.933137726944182</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -14456,7 +14334,7 @@
         <v>104</v>
       </c>
       <c r="I15" s="67">
-        <v>7.8166732090319685E-2</v>
+        <v>9.5467695274831197</v>
       </c>
       <c r="J15" s="47"/>
       <c r="K15" s="47"/>
@@ -14529,7 +14407,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14597,7 +14475,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="66">
-        <v>753.46255609725245</v>
+        <v>1.574E-4</v>
       </c>
       <c r="C3" s="63"/>
       <c r="D3" s="45"/>
@@ -14608,7 +14486,7 @@
         <v>95</v>
       </c>
       <c r="I3" s="66">
-        <v>11.837567110418563</v>
+        <v>0.15310000000000001</v>
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="45"/>
@@ -14620,7 +14498,7 @@
         <v>96</v>
       </c>
       <c r="B4" s="66">
-        <v>681.68209612318049</v>
+        <v>1.538E-4</v>
       </c>
       <c r="C4" s="63"/>
       <c r="D4" s="45"/>
@@ -14631,7 +14509,7 @@
         <v>96</v>
       </c>
       <c r="I4" s="66">
-        <v>12.160083613581635</v>
+        <v>1.3090000000000001E-4</v>
       </c>
       <c r="J4" s="63"/>
       <c r="K4" s="45"/>
@@ -14643,7 +14521,7 @@
         <v>97</v>
       </c>
       <c r="B5" s="66">
-        <v>729.08295334949548</v>
+        <v>1.615E-4</v>
       </c>
       <c r="C5" s="63"/>
       <c r="D5" s="45"/>
@@ -14654,7 +14532,7 @@
         <v>97</v>
       </c>
       <c r="I5" s="66">
-        <v>11.740887616576051</v>
+        <v>1.015E-4</v>
       </c>
       <c r="J5" s="63"/>
       <c r="K5" s="45"/>
@@ -14666,7 +14544,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="66">
-        <v>755.23012431794643</v>
+        <v>1.6080000000000001E-4</v>
       </c>
       <c r="C6" s="63"/>
       <c r="D6" s="45"/>
@@ -14677,7 +14555,7 @@
         <v>98</v>
       </c>
       <c r="I6" s="66">
-        <v>11.340857053719464</v>
+        <v>1.11E-4</v>
       </c>
       <c r="J6" s="63"/>
       <c r="K6" s="45"/>
@@ -14689,7 +14567,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="66">
-        <v>683.49101731876783</v>
+        <v>1.403E-4</v>
       </c>
       <c r="C7" s="63"/>
       <c r="D7" s="45"/>
@@ -14700,7 +14578,7 @@
         <v>99</v>
       </c>
       <c r="I7" s="66">
-        <v>11.706063545867458</v>
+        <v>1.328E-4</v>
       </c>
       <c r="J7" s="63"/>
       <c r="K7" s="45"/>
@@ -14712,7 +14590,7 @@
         <v>100</v>
       </c>
       <c r="B8" s="66">
-        <v>733.02894352600754</v>
+        <v>1.528E-4</v>
       </c>
       <c r="C8" s="63"/>
       <c r="D8" s="45"/>
@@ -14723,7 +14601,7 @@
         <v>100</v>
       </c>
       <c r="I8" s="66">
-        <v>11.19489572124473</v>
+        <v>1.0670000000000001E-4</v>
       </c>
       <c r="J8" s="63"/>
       <c r="K8" s="45"/>
@@ -14735,7 +14613,7 @@
         <v>101</v>
       </c>
       <c r="B9" s="66">
-        <v>717.61060874376653</v>
+        <v>1.6750000000000001E-4</v>
       </c>
       <c r="C9" s="63"/>
       <c r="D9" s="45"/>
@@ -14746,7 +14624,7 @@
         <v>101</v>
       </c>
       <c r="I9" s="66">
-        <v>12.606553252726011</v>
+        <v>1.038E-4</v>
       </c>
       <c r="J9" s="63"/>
       <c r="K9" s="45"/>
@@ -14758,7 +14636,7 @@
         <v>102</v>
       </c>
       <c r="B10" s="66">
-        <v>647.75691761173994</v>
+        <v>1.7090000000000001E-4</v>
       </c>
       <c r="C10" s="63"/>
       <c r="D10" s="45"/>
@@ -14769,7 +14647,7 @@
         <v>102</v>
       </c>
       <c r="I10" s="66">
-        <v>13.093435175360723</v>
+        <v>1.0730000000000001E-4</v>
       </c>
       <c r="J10" s="63"/>
       <c r="K10" s="45"/>
@@ -14781,7 +14659,7 @@
         <v>103</v>
       </c>
       <c r="B11" s="66">
-        <v>699.24486574952971</v>
+        <v>0.43530000000000002</v>
       </c>
       <c r="C11" s="63"/>
       <c r="D11" s="45"/>
@@ -14792,7 +14670,7 @@
         <v>103</v>
       </c>
       <c r="I11" s="66">
-        <v>12.556684842364687</v>
+        <v>1.091E-4</v>
       </c>
       <c r="J11" s="63"/>
       <c r="K11" s="45"/>
@@ -14829,7 +14707,7 @@
         <v>104</v>
       </c>
       <c r="B15" s="67">
-        <v>7.6603135662882876E-2</v>
+        <v>99.935559478532426</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -14840,7 +14718,7 @@
         <v>104</v>
       </c>
       <c r="I15" s="67">
-        <v>7.8166732090319685E-2</v>
+        <v>99.867494769959819</v>
       </c>
       <c r="J15" s="47"/>
       <c r="K15" s="47"/>
@@ -14860,7 +14738,7 @@
   <dimension ref="B1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14960,18 +14838,18 @@
         <v>0.03</v>
       </c>
       <c r="F4" s="3">
-        <v>0.184</v>
+        <v>0.30070000000000002</v>
       </c>
       <c r="G4" s="3">
-        <v>0.5</v>
+        <v>0.49340000000000001</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H6" si="0">IF(OR((F4=""),(G4="")),"",SQRT((F4-C4)^2+(G4-D4)^2))</f>
-        <v>0</v>
+        <v>0.11688648339307675</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>IF(H4="","",IF(H4&lt;E4,"PASS","FAIL"))</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="3" t="str">
@@ -14988,11 +14866,11 @@
       </c>
       <c r="N4" s="3">
         <f>IF(F4="","",F4-C4)</f>
-        <v>0</v>
+        <v>0.11670000000000003</v>
       </c>
       <c r="O4" s="3">
         <f>IF(G4="","",G4-D4)</f>
-        <v>0</v>
+        <v>-6.5999999999999948E-3</v>
       </c>
       <c r="P4" s="10" t="e">
         <f>IF(OR((N4=""),(O4="")),"",13*K4*SQRT((N4^2)+(O4^2)))</f>
@@ -15000,7 +14878,7 @@
       </c>
       <c r="Q4" s="13" t="str">
         <f>IF(H4="","N/A",IF(H4&gt;E4,"FAIL","PASS"))</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15017,14 +14895,14 @@
         <v>0.03</v>
       </c>
       <c r="F5" s="4">
-        <v>2</v>
+        <v>0.30030000000000001</v>
       </c>
       <c r="G5" s="4">
-        <v>1</v>
+        <v>0.49370000000000003</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>1.6360663189492046</v>
+        <v>0.1374386408547465</v>
       </c>
       <c r="I5" s="3" t="str">
         <f>IF(H5="","",IF(H5&lt;E5,"PASS","FAIL"))</f>
@@ -15045,11 +14923,11 @@
       </c>
       <c r="N5" s="3">
         <f t="shared" ref="N5:N6" si="1">IF(F5="","",F5-C5)</f>
-        <v>1.5680000000000001</v>
+        <v>-0.13169999999999998</v>
       </c>
       <c r="O5" s="3">
         <f>IF(G5="","",G5-D5)</f>
-        <v>0.46699999999999997</v>
+        <v>-3.9300000000000002E-2</v>
       </c>
       <c r="P5" s="10" t="e">
         <f t="shared" ref="P5:P7" si="2">IF(OR((N5=""),(O5="")),"",13*K5*SQRT((N5^2)+(O5^2)))</f>
@@ -15074,14 +14952,14 @@
         <v>0.03</v>
       </c>
       <c r="F6" s="4">
-        <v>3</v>
+        <v>0.32079999999999997</v>
       </c>
       <c r="G6" s="4">
-        <v>2</v>
+        <v>0.48380000000000001</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>3.2199448753045448</v>
+        <v>0.21975277017594108</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" ref="I6" si="4">IF(H6="","",IF(H6&lt;E6,"PASS","FAIL"))</f>
@@ -15102,11 +14980,11 @@
       </c>
       <c r="N6" s="3">
         <f t="shared" si="1"/>
-        <v>2.883</v>
+        <v>0.20379999999999998</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" ref="O6:O7" si="6">IF(G6="","",G6-D6)</f>
-        <v>1.4340000000000002</v>
+        <v>-8.219999999999994E-2</v>
       </c>
       <c r="P6" s="10" t="e">
         <f t="shared" si="2"/>
@@ -15131,14 +15009,14 @@
         <v>0.03</v>
       </c>
       <c r="F7" s="4">
-        <v>4</v>
+        <v>0.30309999999999998</v>
       </c>
       <c r="G7" s="4">
-        <v>3</v>
+        <v>0.47949999999999998</v>
       </c>
       <c r="H7" s="3">
         <f>IF(OR((F7=""),(G7="")),"",SQRT((F7-C7)^2+(G7-D7)^2))</f>
-        <v>4.7337063702768889</v>
+        <v>0.26868915125103204</v>
       </c>
       <c r="I7" s="3" t="str">
         <f>IF(H7="","",IF(H7&lt;E7,"PASS","FAIL"))</f>
@@ -15159,11 +15037,11 @@
       </c>
       <c r="N7" s="3">
         <f>IF(F7="","",F7-C7)</f>
-        <v>3.87</v>
+        <v>0.17309999999999998</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="6"/>
-        <v>2.726</v>
+        <v>0.20549999999999996</v>
       </c>
       <c r="P7" s="10" t="e">
         <f t="shared" si="2"/>
@@ -15313,14 +15191,14 @@
         <v>0.03</v>
       </c>
       <c r="F20" s="4">
-        <v>1</v>
+        <v>0.28960000000000002</v>
       </c>
       <c r="G20" s="4">
-        <v>0</v>
+        <v>0.48110000000000003</v>
       </c>
       <c r="H20" s="3">
         <f>IF(OR((F20=""),(G20="")),"",SQRT((F20-C20)^2+(G20-D20)^2))</f>
-        <v>0.9662235766115419</v>
+        <v>0.11880812261794228</v>
       </c>
       <c r="I20" s="3" t="str">
         <f>IF(H20="","",IF(H20&lt;E20,"PASS","FAIL"))</f>
@@ -15341,11 +15219,11 @@
       </c>
       <c r="N20" s="3">
         <f>IF(F20="","",F20-C20)</f>
-        <v>0.82800000000000007</v>
+        <v>0.11760000000000004</v>
       </c>
       <c r="O20" s="3">
         <f>IF(G20="","",G20-D20)</f>
-        <v>-0.498</v>
+        <v>-1.6899999999999971E-2</v>
       </c>
       <c r="P20" s="10" t="e">
         <f>IF(OR((N20=""),(O20="")),"",13*K20*SQRT((N20^2)+(O20^2)))</f>
@@ -15370,14 +15248,14 @@
         <v>0.03</v>
       </c>
       <c r="F21" s="4">
-        <v>2</v>
+        <v>0.2893</v>
       </c>
       <c r="G21" s="4">
-        <v>1</v>
+        <v>0.49980000000000002</v>
       </c>
       <c r="H21" s="3">
         <f>IF(OR((F21=""),(G21="")),"",SQRT((F21-C21)^2+(G21-D21)^2))</f>
-        <v>1.6833543893072545</v>
+        <v>9.9727278113864115E-2</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" ref="I21:I23" si="7">IF(H21="","",IF(H21&lt;E21,"PASS","FAIL"))</f>
@@ -15398,11 +15276,11 @@
       </c>
       <c r="N21" s="3">
         <f t="shared" ref="N21:N23" si="8">IF(F21="","",F21-C21)</f>
-        <v>1.619</v>
+        <v>-9.1700000000000004E-2</v>
       </c>
       <c r="O21" s="3">
         <f>IF(G21="","",G21-D21)</f>
-        <v>0.46099999999999997</v>
+        <v>-3.9200000000000013E-2</v>
       </c>
       <c r="P21" s="10" t="e">
         <f t="shared" ref="P21:P23" si="9">IF(OR((N21=""),(O21="")),"",13*K21*SQRT((N21^2)+(O21^2)))</f>
@@ -15427,14 +15305,14 @@
         <v>0.03</v>
       </c>
       <c r="F22" s="4">
-        <v>3</v>
+        <v>0.30919999999999997</v>
       </c>
       <c r="G22" s="4">
-        <v>2</v>
+        <v>0.49559999999999998</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" ref="H22:H23" si="11">IF(OR((F22=""),(G22="")),"",SQRT((F22-C22)^2+(G22-D22)^2))</f>
-        <v>3.2065245983775021</v>
+        <v>0.19403092537015842</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="7"/>
@@ -15455,11 +15333,11 @@
       </c>
       <c r="N22" s="3">
         <f t="shared" si="8"/>
-        <v>2.87</v>
+        <v>0.17919999999999997</v>
       </c>
       <c r="O22" s="3">
         <f t="shared" ref="O22:O23" si="13">IF(G22="","",G22-D22)</f>
-        <v>1.4300000000000002</v>
+        <v>-7.4399999999999966E-2</v>
       </c>
       <c r="P22" s="10" t="e">
         <f t="shared" si="9"/>
@@ -15484,14 +15362,14 @@
         <v>0.03</v>
       </c>
       <c r="F23" s="4">
-        <v>4</v>
+        <v>0.31180000000000002</v>
       </c>
       <c r="G23" s="4">
-        <v>3</v>
+        <v>0.47089999999999999</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="11"/>
-        <v>4.7406280174677287</v>
+        <v>0.28995422052455105</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="7"/>
@@ -15512,11 +15390,11 @@
       </c>
       <c r="N23" s="3">
         <f t="shared" si="8"/>
-        <v>3.8450000000000002</v>
+        <v>0.15680000000000002</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" si="13"/>
-        <v>2.7730000000000001</v>
+        <v>0.24389999999999998</v>
       </c>
       <c r="P23" s="10" t="e">
         <f t="shared" si="9"/>
@@ -15551,7 +15429,7 @@
   <dimension ref="B1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15583,7 +15461,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="1">
-        <v>182.79411506039997</v>
+        <v>8.7299999999999994E-5</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
@@ -15596,14 +15474,14 @@
       <c r="C3" s="18"/>
       <c r="D3" s="1">
         <f>I2/I3</f>
-        <v>182.79411506039997</v>
+        <v>0.80609418282548473</v>
       </c>
       <c r="E3" s="19" t="str">
         <f>IF(D3="","N/A",IF(OR(D3&lt;B3),"FAIL","PASS"))</f>
         <v>FAIL</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>1.083E-4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -15626,8 +15504,8 @@
   </sheetPr>
   <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15668,7 +15546,7 @@
         <v>114</v>
       </c>
       <c r="C4" s="49">
-        <v>0</v>
+        <v>1.065E-4</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>115</v>
@@ -15683,18 +15561,18 @@
         <v>116</v>
       </c>
       <c r="C5" s="49">
-        <v>1</v>
+        <v>0.43490000000000001</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="50" t="e">
+      <c r="E5" s="50">
         <f>100*C5/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="50" t="e">
+        <v>408356.8075117371</v>
+      </c>
+      <c r="F5" s="50" t="str">
         <f>IF(E5&gt;=75,"PASS","FAIL")</f>
-        <v>#DIV/0!</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15702,18 +15580,18 @@
         <v>118</v>
       </c>
       <c r="C6" s="49">
-        <v>2</v>
+        <v>0.4299</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="50" t="e">
+      <c r="E6" s="50">
         <f>100*C6/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="50" t="e">
+        <v>403661.97183098592</v>
+      </c>
+      <c r="F6" s="50" t="str">
         <f>IF(E6&lt;=25,"PASS","FAIL")</f>
-        <v>#DIV/0!</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15721,18 +15599,18 @@
         <v>120</v>
       </c>
       <c r="C7" s="49">
-        <v>3</v>
+        <v>0.43180000000000002</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="50" t="e">
+      <c r="E7" s="50">
         <f>100*C7/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="50" t="e">
+        <v>405446.00938967138</v>
+      </c>
+      <c r="F7" s="50" t="str">
         <f>IF(E7&gt;=80,"PASS","FAIL")</f>
-        <v>#DIV/0!</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15740,18 +15618,18 @@
         <v>122</v>
       </c>
       <c r="C8" s="49">
-        <v>4</v>
+        <v>0.43120000000000003</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="50" t="e">
+      <c r="E8" s="50">
         <f>100*C8/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="50" t="e">
+        <v>404882.62910798128</v>
+      </c>
+      <c r="F8" s="50" t="str">
         <f>IF(E8&lt;=25,"PASS","FAIL")</f>
-        <v>#DIV/0!</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15759,18 +15637,18 @@
         <v>123</v>
       </c>
       <c r="C9" s="49">
-        <v>5</v>
+        <v>0.43049999999999999</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="50" t="e">
+      <c r="E9" s="50">
         <f>100*C9/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="50" t="e">
+        <v>404225.35211267602</v>
+      </c>
+      <c r="F9" s="50" t="str">
         <f>IF(E9&lt;=20,"PASS","FAIL")</f>
-        <v>#DIV/0!</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15778,18 +15656,18 @@
         <v>125</v>
       </c>
       <c r="C10" s="49">
-        <v>6</v>
+        <v>0.43009999999999998</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="50" t="e">
+      <c r="E10" s="50">
         <f>100*C10/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="50" t="e">
+        <v>403849.76525821595</v>
+      </c>
+      <c r="F10" s="50" t="str">
         <f>IF(E10&gt;=60,"PASS","FAIL")</f>
-        <v>#DIV/0!</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15797,18 +15675,18 @@
         <v>127</v>
       </c>
       <c r="C11" s="49">
-        <v>7</v>
+        <v>0.43</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="50" t="e">
+      <c r="E11" s="50">
         <f>100*C11/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="50" t="e">
+        <v>403755.86854460096</v>
+      </c>
+      <c r="F11" s="50" t="str">
         <f>IF(E11&gt;=75,"PASS","FAIL")</f>
-        <v>#DIV/0!</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15816,18 +15694,18 @@
         <v>128</v>
       </c>
       <c r="C12" s="49">
-        <v>8</v>
+        <v>0.42970000000000003</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="50" t="e">
+      <c r="E12" s="50">
         <f>100*C12/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="50" t="e">
+        <v>403474.17840375594</v>
+      </c>
+      <c r="F12" s="50" t="str">
         <f>IF(E12&gt;=75,"PASS","FAIL")</f>
-        <v>#DIV/0!</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15835,18 +15713,18 @@
         <v>129</v>
       </c>
       <c r="C13" s="49">
-        <v>9</v>
+        <v>0.4299</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="50" t="e">
+      <c r="E13" s="50">
         <f>100*C13/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="50" t="e">
+        <v>403661.97183098592</v>
+      </c>
+      <c r="F13" s="50" t="str">
         <f>IF(E13&gt;=60,"PASS","FAIL")</f>
-        <v>#DIV/0!</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15854,18 +15732,18 @@
         <v>130</v>
       </c>
       <c r="C14" s="49">
-        <v>10</v>
+        <v>0.4289</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="50" t="e">
+      <c r="E14" s="50">
         <f>100*C14/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="50" t="e">
+        <v>402723.00469483569</v>
+      </c>
+      <c r="F14" s="50" t="str">
         <f>IF(E14&lt;=20,"PASS","FAIL")</f>
-        <v>#DIV/0!</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
